--- a/uploads/import_pgp_emails.xlsx
+++ b/uploads/import_pgp_emails.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaidjaber/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1E8E1-C874-F94F-9F3D-EF6249753326}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>pgp_email</t>
   </si>
   <si>
-    <t>example@domain.com</t>
+    <t>1619DKV@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>3669NBQ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>3754ZUB@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5147DXT@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4338GQG@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5438DNE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2675DKN@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8244SRE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5412JJN@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4134PTE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2954PAJ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>6845YAY@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>7992PFY@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4967GCM@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5373SAJ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>1233NPX@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>7921MKT@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2188PBW@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2535MPM@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4254PMS@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4511AXM@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4437CZC@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8729YAM@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>7497CXZ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5464NJF@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>6362MBN@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5752CXB@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>9498NBS@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>3789NZU@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>9643NZE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>9347SKJ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8837ZRE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>7245BCB@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>9279GBS@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>1747BBV@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4288DXZ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2474VJS@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>1976JSN@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>1879TWV@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2458VZC@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>1842WKX@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5225CHG@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4337VZF@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5734TXZ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4763XEK@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2196GNW@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8931APD@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8478YXA@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>9437TPJ@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>4347HVE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>5945VEC@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>2583AUF@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>7574XDR@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>8497KRA@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>6497NVE@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>3371GCF@ARMORSEC.XYZ</t>
+  </si>
+  <si>
+    <t>955MNH@TITANSECURE.BIZ</t>
+  </si>
+  <si>
+    <t>599NGT@TITANSECURE.BIZ</t>
+  </si>
+  <si>
+    <t>358GTR@TITANSECURE.BIZ</t>
+  </si>
+  <si>
+    <t>349VFT@TITANSECURE.BIZ</t>
+  </si>
+  <si>
+    <t>791BFT@TITANSECURE.BIZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -45,12 +226,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,16 +249,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,74 +534,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A11" r:id="rId2" display="example@domain.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C02301F5-5B7B-8249-B5BA-0E7E0C171135}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B482E68C-81CC-334E-B7B1-046B374FBB18}"/>
+    <hyperlink ref="A4:A5" r:id="rId3" display="599NGT@TITANSECURE.BIZ" xr:uid="{ABC1F14D-059C-2547-BA6A-A717A1A93E30}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{9952F470-9EF7-174A-AB21-57FFA5226373}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{D6237507-A534-E94F-A351-88C601E0F2C1}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{7E61A3FA-746C-3D43-A5B6-3A19A95792A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/import_pgp_emails.xlsx
+++ b/uploads/import_pgp_emails.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="30795" windowHeight="17175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
+  <si>
+    <t>pgp_email</t>
+  </si>
+  <si>
+    <t>example@domain.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,10 +45,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,14 +70,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,199 +358,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" s="1" customFormat="1"/>
-    <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.75">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.75">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" ht="15.75">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" ht="15.75">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.75">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.75">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.75">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.75">
-      <c r="A62" s="1"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3:A11" r:id="rId2" display="example@domain.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>